--- a/etc/2024-02.xlsx
+++ b/etc/2024-02.xlsx
@@ -2636,13 +2636,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="12">
-        <v>3633.273</v>
+        <v>3605.16</v>
       </c>
       <c r="I17" s="13">
-        <v>2187.862</v>
+        <v>2164.5</v>
       </c>
       <c r="J17" s="14">
-        <v>4416.398</v>
+        <v>4387.41</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
